--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/77_Uşak_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/77_Uşak_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF0E244A-6328-4933-9BEE-BC2852F6E39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D3406FF-9D65-4BEC-ACDF-A51997328AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{3CE9B022-9E6C-4D87-B1CD-C70A0CC24E90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{DFE2B28A-919D-4E00-80FD-9F467FCB5463}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -996,15 +996,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3346017A-91E9-47B8-B1B7-B463457D4978}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F48A6BCA-ACB6-4392-8A8F-27E39BAFEEB1}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{60B23915-0930-4C59-8AB6-45B4E1DEB7A0}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{A229BDAB-D015-49D4-A3A1-575FB0D57240}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{1D065361-5024-4795-A7E9-F1AC5A3E5759}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{3197B37B-69D2-49F7-85F1-7C59EEBBEFBA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{028FE8ED-9BE0-4689-8E67-61493C65FC01}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{3804E42C-243C-4DE2-AEF8-B7F8C2937D7C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{493EDCC6-C0E2-4858-AC76-4F6FBA6830C9}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BFF38361-1C06-4116-952A-127B960F9151}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A67F522F-7196-49B5-A5E4-BD0161E33938}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{228E9740-745F-4DC2-B842-CDB59CC4774B}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{AF89083F-1369-4EC5-BEA6-C4188D89EB6D}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{2E17A3E0-6CCB-40B1-B5C6-0152370CDABF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{5B09E281-0696-40A1-BD83-C12BDF3F37D8}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{D621B0A7-AA50-4A8C-A964-6ADFAEFCF7CA}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{C4933B76-5312-43C3-BB56-90109E32249B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{7B59A83C-40D8-4842-9F60-F95CC6DD290F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1374,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D42DB7-85B4-4B30-861F-9AFAD8C0214F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BA7E8C-D826-48A4-9B78-43B51AC73BD0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2637,18 +2637,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38C3BC39-994E-4E4E-8E8A-1F2B3F739C38}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FA74D31-5939-4845-B164-14438B40A844}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BDA84B15-6538-4981-B81E-3A7C43040651}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AFCA2F59-E63E-4B65-8C42-15F985F79E1C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EEA33573-8003-4BF6-96D9-CA7234608B70}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3B8C2C16-B8D5-41B0-B13D-D2DE035770AD}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{88695FC5-FEDF-4FFB-94C3-B4B8428CCA0D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94AE0EA7-F34E-4C41-9764-676689DFE052}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E624E985-D7EB-4A49-8C2D-78709CCFEBA2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{569829F8-21F5-4BBC-A879-12BD2BD58C8B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D20D690B-D4D7-4A20-B23B-F1BC78E5BAC1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7E8833F9-64C9-4416-8527-3293A61E0BB4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C153C005-1897-4FA2-AE8A-86FFBEF695D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4AE13CF2-73A0-4A35-B50E-AB329CCB0A1D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{706C9186-C629-450F-8CD8-5BE6C45D47FD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{82F7046D-218C-4B8D-BB2E-78AC652283B5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D53E46F2-55EC-462D-9619-230EC03EFB1D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9688C18C-BFBF-449F-987E-00FC99C95D36}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{1E0C34F9-8F4A-484C-B7CE-5C43F8FEE7E7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9BBB654-CC7B-4738-8067-59AF1DF754ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4912024-96F6-43E9-B89F-BC767EDC8343}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0ED50067-0536-4A29-BC7F-B443BF04A192}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{65DF8669-57CB-4977-8563-1459432D6851}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C7A4DA0F-0427-4354-9B78-EE9359B4A543}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2661,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2F4CD5-51A1-4BFC-9E4B-96B25937F6C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473D73DD-542C-428D-8510-7339456B50DB}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3906,18 +3906,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3409E18C-0DD5-4D1D-B90E-AEB10ECAA7F8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19180ECC-0BDF-4A6A-B0EA-97E881F9EB52}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{350BCC7D-B157-4D30-83A8-5E397CA21314}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2A2A3356-7D51-4F32-A67A-B10C9F1B0A8E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D4406F05-1DA1-4526-99DC-E0B7F24A3307}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CBDFE4B2-E945-42F5-B533-04762AA2DDAE}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{5828D93A-BF20-48D2-B3FA-87322BDE43EF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3FCBC25-27BC-4F43-A4E8-B26970C77AB8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C63582E1-9006-4298-BDD3-2040235FA545}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{125872BC-AF5B-4513-8913-AA3DC388920F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{177091CF-E5EB-41F8-820F-3ED65117AA9E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33B8AFE9-63BF-4CD1-9139-0FB4FE92DFEC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D709DCC-17F4-4A78-8609-9030325250B8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{700049AF-20C7-4B43-8DB3-EC1C09588EBB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1903235C-58D6-43D4-B439-45CE274F7798}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{15F87DD4-1650-45DC-A012-B7F9773374E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA5AC5F2-C687-46A6-BE56-CF4E00516D96}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3BAC2114-CEF2-401A-8123-B1679CFCDE3D}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{2179AF47-0EDD-414D-93B2-0E29AEB5B421}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C66C92C6-44E9-45B0-8CC7-87E39FC52A3F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E7B676B2-C52A-4FA4-BB1E-2AA134FF63C7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{34227E0C-E79B-417E-A35E-2B853BFC7B97}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35F3B747-7E4E-4734-BC17-C73438C4B160}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F560B3C6-D07D-49FD-A104-144F950E2493}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3930,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3B1824-1C33-4BE9-9041-FA194FA5BF78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC36BED-8525-4062-B345-163FFF33C1C4}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5175,18 +5175,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8ED3CBEF-73DF-406D-95F5-3AD895A65C50}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3BDDBE56-4FC5-4356-A183-CD3801CA94E9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{93FF2565-A0A2-47C4-8842-B1EB85E73ED4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C344D7A1-8AF7-4F39-AB77-6C4D41ACC3C5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{623BDB69-485A-4803-881F-73CC7B8BE50A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{39ADE818-BE6F-46A6-98FD-3D078CF0DCBD}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{0D208B4F-2884-4648-AD75-95629AE5D255}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE530B9D-E7D2-4D41-ABAB-A43C8841196C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{08FA188E-A946-47FC-836F-9C5E77A1798F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{71B6073B-8BFB-4C52-83E2-5D015AB5FB19}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF7FD3F2-ADCB-4A3A-94ED-214266FC0147}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AAF984F7-262C-4B60-A977-C39E4331C8AE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0FB0766B-69F8-40B4-A3F6-DEC6DA725823}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{383038C9-01A5-48B4-8FA9-A3DCF6D9DE3A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{349430E7-36A7-4C3C-A578-870FC6C029DC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1E8DF65F-5739-4F18-BCF1-4A359C0843D3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C7CA055-C824-46A8-8C6E-04E6ED1439D2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{013CCACE-DBB4-4B3B-B62E-5158A6ADE3BC}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{5A53FC61-244B-4DE8-933E-E2BCEE36F0EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D083042C-84E8-4AEB-891A-32261C4E28F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9B4884FF-1ECE-4863-918F-19327C6EE69B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{293A2414-086D-488A-A245-C1B62647B801}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{212A9B40-7B2E-4C7B-B973-F1F172C5447D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B11BB982-0445-4017-A639-8156DD0B5DE6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5199,7 +5199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020306AC-1B36-4D34-927A-86770700E5AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240EA60A-859E-4882-B4CB-B2D0D92BDECE}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6440,18 +6440,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5C56E92-7A1F-48DE-80F7-0622D51955E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C85F788E-CA7E-4A73-9080-1EBFCB8DBCBB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{908FF317-DB59-45D7-B67F-FEA5DABA938F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD655456-69B0-4893-AE9E-E9B18C75C965}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B22BCC56-5075-47CB-87B5-A45CF843036A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{308487DB-6CC7-4318-8540-54A23A8C4532}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{8FE6B16D-8BE2-423E-A45F-3BF36E72722E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F67DC59-3221-4626-A49F-174734F87D6D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00FB12EB-9BBF-437A-A01B-EAC997AB07C4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6F7312B5-5EBF-41A6-8A3D-ADF5D9208C18}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5DF5D152-A4DC-407C-8535-9D991D8251B7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2CE98C8B-D6A4-4B44-AFFA-D6073B480B01}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A7D3F8CD-6BC3-4AA1-AD04-E40EA0065760}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9DD5BE3-121E-4F88-BEB6-D00E7C118F8F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{98EB6227-99E5-4C95-AE7C-2823E52DDF97}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AF71C5A0-3058-4F05-A9AA-7DDA94F44F17}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E044B39C-A0C6-4DBA-A894-35A5D965AC95}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9CD8D39D-575F-4FA9-B398-EC03AA2DBD0C}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{547045F0-F08D-4775-970A-89B23ACF2AE5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{671A2C06-1551-4ACA-9DD4-53DE1BD51596}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3225118-0C8F-43A7-BD76-8ADD47378118}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{85E2F5FD-899D-4156-9C2E-605854516F85}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F125F35-EFEE-4E9F-8091-D93D73AB5CA7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1429924D-5EC9-4E0A-99B3-8079498281AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6464,7 +6464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9472579D-F4A9-46A3-9324-0BFE7B6BCC27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C458617-C059-4B15-971B-9285D51455C1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7729,18 +7729,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39BBDB56-531D-41A2-AACA-8BEA13BB9C09}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{81B6E051-16A8-4536-9609-D817D3CE51EE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D1887187-AF94-4CC0-956C-982D9ED133EF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2DF7A8F1-995D-4378-80C8-CDEE7FA4237D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D7DC45F-7B7B-4906-B9A5-E53A2E98BDAC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{549F0DEA-A565-43F5-9159-730FA7159ADC}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{B8744AF2-B358-4CB7-AEEB-D9844808A1E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72A700F8-BA76-49BB-9E10-A8460459FF5D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53315D1D-C8F4-4948-9854-8BB2BA03832A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6D0CB054-CF6D-436F-AFBB-6516C8E97BF4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01B12266-E5E9-444B-89CC-7D557CA26719}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{201C32CA-0968-4553-9698-F7CB7207AD91}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B869061F-A652-40E9-A93A-B0F432FF4D8D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64E55BFA-B2B3-48A5-B3B5-E211DF4E2153}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BF3CCCF5-F738-4B4E-8743-A082EC35A23C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AC24E2AB-D27B-472C-BF43-57C1530E1453}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{47F47D43-DDF4-4F25-B086-CD5C416AD209}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A5658FFF-1312-4042-9377-D597446120F2}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{1ADEFCD6-CA53-4432-B847-01C0D3C69DAA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{022D5D2C-5858-4EE5-90C9-8DBAA88303D7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC9A5141-153A-41F9-94EF-7AE7C5771769}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{230D27B8-3A0C-4B05-8FE2-C5563BA356AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7963B2C3-E82C-4580-A409-A5EE88F6DDB8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02BD9672-3CF3-4C45-BC13-A4B3EE692649}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7753,7 +7753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11B221A-E121-4A10-9C9A-8749B8A32CE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C1CDCF-B759-425C-93EE-3A7649A88BE8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9018,18 +9018,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42E4FB34-A363-4388-AAAF-31FDC6E45B79}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6AA98A63-8B31-4BE0-A629-4A1EA971CE1E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3C9EE6DC-495D-4FEA-BE9A-8C9845AE1C67}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC3D2113-E6CF-4C54-A54D-49AADC0FBA3B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D1D3AB5E-302A-4452-8645-D44E19B447DD}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{36C54259-151C-4E64-A1E7-98FF05B505DB}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{A47E839B-F841-4C17-BC81-EFEA299EA61D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B42DDCC-C2A3-4E32-815D-F956CC8BE2EE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4BF93406-EBD4-4FCA-9C1F-BC3FFE630535}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{08D66F24-0196-48D8-B442-1A0FB5CC890B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A39CF608-8EDA-488E-ACCC-7752610DF44B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7369F722-ADF7-4A27-A9E2-1B5BC008163E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F8FFE91A-0D99-405E-8D16-BFCAD9942B9C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13921C30-D86C-4645-BB42-D065D629CCFD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F14D10E9-027D-4F81-A3F4-EEAC9DE7A52A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E45BC047-9B49-4557-8891-47FDE0D2F581}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9707612C-2557-4E7C-B3B5-60C83EF0B63F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E114BBD1-0F43-4D0D-A871-0B6AC9DEBB74}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{35D6F848-FE91-4DD1-B072-B102BD953558}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A8D89E9-2ACE-443E-8E2B-38B86FB5049D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46E96037-DDE6-4A06-9FCA-B618BE9C2574}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{03C10407-F1C6-4ADE-83BB-2D4738CB4F67}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2842AB68-525D-42C1-B316-2830D2335E84}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A8DFD3F-C863-4C4A-A769-518CBD96AC72}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9042,7 +9042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB0556D-3B8E-4B2C-963C-EFB2739EA4BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B5BE8B-74EB-454A-9490-988A899BC945}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10307,18 +10307,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A726932-E737-4831-BB33-80C024A32C60}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2EA97C3F-69C0-41E6-B88F-ED503B73A869}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{244D79DF-4A49-43D5-B142-B38ED457DDBC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{09FAFFAE-701A-4637-B1D3-CA3087C4C3E4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C415DCA5-A911-4FD8-862C-27697561BE82}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{58D0E670-806D-42E7-A91A-8BF476CE1C48}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{4B094351-9950-4516-8488-17CC240ECF55}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B7243E0-F557-4D34-8746-B6B0E4029686}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{94976F01-531E-40C1-9B9D-975A06B3E80B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{421E2433-2AA2-4D44-A5AC-FD2E806E9E69}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{98BD3D1F-90A0-475B-868B-7A5A9EB52BB7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{32271878-ECDB-43B6-B701-C4A7A160A543}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F7A6202-2897-406F-B154-248613BED5D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7FB1BEAE-D0E1-4AD4-834B-F0DCDC59FE90}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FF63D4F7-004C-4911-977D-037E8EB7224F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{82F42D6A-0159-43D2-B194-6D84266A53A3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F6FF6CA-C3D0-49B5-9215-B29D37BE5C1B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A1B5C3CB-C855-4772-B095-95E5F8265231}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{74C7E9CA-E0FD-45E9-8678-918A1A2BC05C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28FF8811-253B-4931-BAE9-F70D2F835918}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F076D01-B107-424D-BFDC-0E7DC15C293F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9AFEBEED-0EFC-4674-A9EB-C35CCB3B078C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{922CEBB9-57B1-4EAE-814B-913606852429}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{77A60656-68E9-4E9A-8DDA-1CA8252ABE13}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10331,7 +10331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B8CDDD-D8CF-47E9-8A8B-5D14D440B952}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1411FF30-66D9-4AE2-858B-E233B12A7B70}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11596,18 +11596,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9300F7FB-315A-4678-B79C-FAAC73955379}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75D9AA3D-1535-48A1-8ED0-44E22185A109}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4D6795CF-508B-4517-806E-0B3B4E5897CA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6204352D-1536-49A4-9FD2-CC380367A7E5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87D7139A-D785-48E9-A536-02A3223D1C96}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B60A5B96-2C1E-47E4-8871-C290F550D2C7}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{72F696EF-43A5-4FC7-8B6B-DB72D05F0BDB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6245206A-1830-4F4C-A4AE-DBA4A6D05B2A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D34EE73E-28B3-42DB-AC6B-6CCCF6435053}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9324CA65-F056-43CE-91A8-E769C88071A7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD5069A7-2267-46B2-9073-EE5B6362BC28}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE4EE8F8-896B-428C-80B6-3815C509A89E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9DA00DFE-264F-4EFC-B732-EC5650A3AAE0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FED588AE-86A5-4A6E-8119-2CD6234A8575}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A7D6F31E-ED7D-4726-B518-007D4510C193}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B92BEBE1-EA91-4978-A317-AAD22AA37D5A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{862301B6-BF17-4979-8D3B-FD6414F4A423}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{728A59FE-1168-4B63-B66A-1D995C764539}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{0CDE7A26-5CDC-4662-9873-30AFFB9A4272}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{245D6B8A-C361-462D-856D-ED70853063E3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A254B77-775C-4B8E-BD1B-C220308975F1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F9B3FC6E-41C7-42A3-B2A7-193BAD628C35}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D248A22D-0887-45E1-8CED-8484D74949CC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D1DF886D-D112-4D17-B6B3-15C4361A113E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11620,7 +11620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4936D6-6341-4E95-9075-AE3B836B5809}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0557E5-2A6A-4204-86EB-3C2A511D1776}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12873,18 +12873,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64B90C99-6701-4D41-8F6D-510225FD29F2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46DF9B7B-4A1D-47FF-97DF-9D031CAB343C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{317FAFE6-1165-41DD-ADD4-6757150BED67}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E1592854-CE70-4772-B42F-14B8B93D038C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D4341038-99B2-432E-935C-28B379464548}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{08906CAC-3796-41FA-ABFA-BC7CE1CA1D3F}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{1976FB76-8DF3-45F4-8E85-9E63B467D47B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03FDDE5E-CDBE-4AB2-AC69-B91B7350AF55}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D62FDCD9-3054-4E20-BFB8-E25340797A40}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7BA927D3-07E1-4113-AC2A-0B3B41093ACB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6559EDC8-8604-475D-9B21-3CE2DAE67898}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0780C8DA-514F-42D1-AB4C-51B10CD51489}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{57B0E71E-0887-41D0-BBDF-D2B604CC99CC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03F101FB-CC94-42F8-B437-ECFA5867A0FF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DF4C9C34-D6B0-476C-A839-466C2EA8EB7A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A327E6E4-57B7-4B6F-8DA3-AD006C9932FE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98669F6E-EE89-40DF-A1C1-B0ABA95F30F6}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7B4166BC-B5EF-422B-B6CE-7E71CB1E6D3A}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{162D27F9-CF05-4465-A3DC-0BADA7975354}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8964DB4A-C5E9-4D1A-BB05-809FA5FAEAFE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{296DBCF0-D7F6-49EC-8C12-7A5D40DC82A5}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A134A560-CA3C-40AE-BD1B-9A3ED92012A5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D99EAC98-51E3-42AE-8161-F2314363C1E5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{58F519C7-FCBD-4B7F-AD0A-FF1C900EB55C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12897,7 +12897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66B9E58-7CF4-47FC-B9E1-DE1FC2A6A11C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D061DA56-83E0-4576-A73C-14854D7EDD03}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14146,18 +14146,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00C32CD6-68CD-469C-B801-6032E578FC52}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00D6B106-534E-414A-B79E-884AD92EF1A7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F7F36AEB-F0FD-4799-856F-0F4DB45C31C9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7CB5EE78-6323-43EB-AD33-F11A398A6333}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{234527F7-ACA6-4E08-A55F-7D47863A0B79}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0B986DE3-3060-4236-BA02-45A02F48D2C2}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{6345D248-90B8-4E9C-BDEA-FC3137CB4A6A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{10D0894D-EB05-4B42-921D-C9059696CFF2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{377F0009-BADE-455D-9ECA-515F39AF0D66}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8C3DBA70-2BA0-47CC-A6DC-F3B282832460}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E6260FA-B0A9-4C9B-86E0-755A05B0259A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8403514-0F4E-484A-B6A4-138E8BB8971F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BAA4B99E-A0F1-4DDA-9679-0A3ABE9235AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{044967A7-605D-43A5-B766-99FF876F05D6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CE2A25F6-153E-4BC3-BB56-5894B8EC04F8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3BDB142-3A00-4756-A24F-DD32E171BE3F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B5606998-7A59-4EC1-9CAE-5BDAA942227E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{298F4366-6ED3-4DCF-8838-5C8887003FE6}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{7C5D6B83-FE3D-4746-A898-6E27F8FC7059}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E301D8F9-C575-4AFE-8624-86033268EC22}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D58DCE5-A404-438F-AE1E-271F7F5448F6}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F9AD51F4-A252-4EA3-A843-04BEF5D5B921}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{92EBF34A-79CC-4CFC-A802-46BC5CF7B071}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDA168FE-A457-4D57-9BD4-297674EE4D82}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14170,7 +14170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C57F3CE-9059-49BB-B6C4-F3226550181A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B03FEB9-2416-4FFC-A92C-4EFF1393A7E8}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15419,18 +15419,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF1A6BB2-DF72-4550-900B-717EB19E3B1F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27EAF99B-20E2-41D7-AA01-6DDE00BF81B4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CEBDF0B4-031E-4326-97B7-BAFB5AF9A9CC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{09BA4C5D-CD0B-4FA7-B634-B71A1A3DA3FD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8FC344E9-05C5-4815-B996-4D853DD504A6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2BD68271-10E1-4FC1-AEA3-6FD1143D573B}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{A0269F90-FD35-4DD7-85BF-1493B033E882}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{544C00A7-59EC-4272-9266-C6D20B8302E1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4B1C2798-828A-4D6A-85A6-B0E5FFC802A9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D9395DAB-2EEE-41D4-AA2E-358ADB87FE77}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F29DBE8F-9554-4EFA-A7B5-7AFA44431966}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BDF98F85-E629-4A59-9069-4F7D371E0244}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26DD44C3-245F-4F6B-9AB8-AA4C3B95B21D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{11018064-9AAF-43E6-A020-AB80891DCA8D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FDA26B90-82CE-4D74-B2B9-D403AA1E5C3E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F99C0DA2-2A13-4B5C-B683-24A455AF1873}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF5F4B9C-471D-4771-AC23-1EADBBD2FBEF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{888E1225-724A-4C3E-83AC-DDA841D736BC}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{DA2375B7-D7A7-468A-A039-51E63FEFA98E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D763DD0C-0A62-4A80-89BE-6EA558B12719}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61CD479F-A667-487D-ABB6-0CD2B2D6BB84}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{269F37AB-44E4-4231-853E-113BABC27CA7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D11AF228-BFD3-4717-AC5A-5A992AE05D6D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1267B076-1B02-4204-8EA0-E8A9E05A1DD2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15443,7 +15443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834E29FF-8536-48CC-AB73-7F7B10D90B03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6798DAA-93BD-4D06-A669-3817D439B1E8}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16692,18 +16692,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F29C77ED-6681-4DD6-BD53-3E37158A25BC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B14A7BEF-49BC-4170-B380-4B3256867458}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{73B14D3C-E77F-4C69-8D73-37F75BE518C5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6ADDCE4A-BC07-403C-91D4-FA3D60679FAD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8CCC217B-5C1F-44B0-96D0-4BA3A7304DCE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C3F16036-0BA4-487F-8DDA-259EEE57C6CE}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{E9DE7FC6-7C9F-452C-93E9-BE836CE8A08C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CAF319D3-1D23-423C-BCEB-D1B2A310FEA2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C8E19D1-49E9-49F8-ACC9-D312ED7C810A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2AB2F7A6-925B-40D2-952D-373037FE23E3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85FD0DEA-EEE1-4E47-BEB6-221B16FDFA79}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{445BC39C-057C-4EFC-81FC-18C6330CB906}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F66D03B-06CC-4D3E-B6CB-0F4C397F823A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00656BBC-8BA7-446B-AFB2-73D80EDF34ED}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{049809C6-49E5-45CE-A717-4DA92133A23E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0DBCCFF-9858-4CDF-B616-23F33E3EA74D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{45E8839D-E759-4970-8F4F-78D2DF0BFFFA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{57BE9103-1897-4732-B575-7CBC06536C5E}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{9AB6D743-2DBF-4FB4-B8A6-EEE78E379C27}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBE83185-52A4-48D2-B230-36295EF8479D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A979AEE3-726C-4AF6-982D-0F5B8B41A700}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{70607ED7-A37D-4698-83D5-5AB0816CB17F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9926E30-F589-44AC-839D-84623B31DE2F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C49B22D4-5764-4E8B-9106-222FE8D8E7B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
